--- a/EXP.xlsx
+++ b/EXP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>RF1,3,5,T,RH,AH -&gt; S1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>lassoCV(cv = 1, normalize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tansig*2,  输出不经过norm, hw=5, 8000(已收敛)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bagging</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1227,7 @@
         <v>-1.9599999999999999E-2</v>
       </c>
       <c r="L16" s="2">
-        <v>0.42030000000000001</v>
+        <v>0.42303000000000002</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
@@ -1248,7 +1260,7 @@
         <v>5.1799999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1271,7 @@
         <v>-1.9599999999999999E-2</v>
       </c>
       <c r="L17" s="2">
-        <v>0.42030000000000001</v>
+        <v>0.42303000000000002</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -1278,7 +1290,7 @@
       </c>
       <c r="U17"/>
     </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
         <v>45</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>0.43690000000000001</v>
       </c>
     </row>
-    <row r="20" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>0.43690000000000001</v>
       </c>
     </row>
-    <row r="21" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
         <v>48</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>0.43980000000000002</v>
       </c>
     </row>
-    <row r="22" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>16</v>
       </c>
@@ -1366,12 +1378,49 @@
         <v>0.43980000000000002</v>
       </c>
     </row>
-    <row r="25" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K23" s="2">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.2298</v>
+      </c>
+      <c r="T23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="8:24" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.31707965625599999</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1.42910258876</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0.115775787968</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0.13396664999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="8:24" x14ac:dyDescent="0.2">
       <c r="M25" s="2">
         <v>0.244754281289642</v>
       </c>
     </row>
-    <row r="27" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:24" x14ac:dyDescent="0.2">
       <c r="J27" s="2">
         <v>0.30399999999999999</v>
       </c>
@@ -1382,7 +1431,7 @@
         <v>0.43919999999999998</v>
       </c>
     </row>
-    <row r="28" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +1465,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1482,7 @@
         <v>0.2737</v>
       </c>
     </row>
-    <row r="31" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>43</v>
       </c>

--- a/EXP.xlsx
+++ b/EXP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>RF1,3,5,T,RH,AH -&gt; S1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +249,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,6 +288,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -1379,16 +1388,19 @@
       </c>
     </row>
     <row r="23" spans="8:24" x14ac:dyDescent="0.2">
-      <c r="I23" t="s">
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <v>0.42059999999999997</v>
       </c>
       <c r="M23" s="2">
